--- a/pred_ohlcv/54/2019-10-18 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 GXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E2" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F2" t="n">
-        <v>391.0148</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>583</v>
+        <v>582.8333333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E3" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>1172.8923</v>
+        <v>391.0148</v>
       </c>
       <c r="G3" t="n">
-        <v>583.1</v>
+        <v>583</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E4" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F4" t="n">
-        <v>6.8033</v>
+        <v>1172.8923</v>
       </c>
       <c r="G4" t="n">
-        <v>583.2666666666667</v>
+        <v>583.1</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>589</v>
       </c>
       <c r="F5" t="n">
-        <v>15.3402</v>
+        <v>6.8033</v>
       </c>
       <c r="G5" t="n">
-        <v>583.4166666666666</v>
+        <v>583.2666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>589</v>
       </c>
       <c r="F6" t="n">
-        <v>19.668</v>
+        <v>15.3402</v>
       </c>
       <c r="G6" t="n">
-        <v>583.5666666666667</v>
+        <v>583.4166666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>589</v>
       </c>
       <c r="F7" t="n">
-        <v>127.2334</v>
+        <v>19.668</v>
       </c>
       <c r="G7" t="n">
-        <v>583.7166666666667</v>
+        <v>583.5666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>589</v>
       </c>
       <c r="F8" t="n">
-        <v>57.2555</v>
+        <v>127.2334</v>
       </c>
       <c r="G8" t="n">
-        <v>583.8666666666667</v>
+        <v>583.7166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E9" t="n">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>57.2555</v>
       </c>
       <c r="G9" t="n">
-        <v>584.1333333333333</v>
+        <v>583.8666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E10" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0594</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>584.4666666666667</v>
+        <v>584.1333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E11" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F11" t="n">
-        <v>73.973</v>
+        <v>5.0594</v>
       </c>
       <c r="G11" t="n">
-        <v>584.5833333333334</v>
+        <v>584.4666666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C12" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E12" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F12" t="n">
-        <v>426.165</v>
+        <v>73.973</v>
       </c>
       <c r="G12" t="n">
-        <v>584.6</v>
+        <v>584.5833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C13" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D13" t="n">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E13" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F13" t="n">
-        <v>5066.9883</v>
+        <v>426.165</v>
       </c>
       <c r="G13" t="n">
-        <v>584.8333333333334</v>
+        <v>584.6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C14" t="n">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D14" t="n">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E14" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F14" t="n">
-        <v>515.4215</v>
+        <v>5066.9883</v>
       </c>
       <c r="G14" t="n">
-        <v>585</v>
+        <v>584.8333333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C15" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D15" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E15" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>515.4215</v>
       </c>
       <c r="G15" t="n">
-        <v>584.9</v>
+        <v>585</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C16" t="n">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D16" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E16" t="n">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F16" t="n">
-        <v>170.138</v>
+        <v>250</v>
       </c>
       <c r="G16" t="n">
-        <v>584.8666666666667</v>
+        <v>584.9</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C17" t="n">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D17" t="n">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E17" t="n">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F17" t="n">
-        <v>1104</v>
+        <v>170.138</v>
       </c>
       <c r="G17" t="n">
-        <v>584.9</v>
+        <v>584.8666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C18" t="n">
         <v>582</v>
       </c>
       <c r="D18" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E18" t="n">
         <v>582</v>
       </c>
       <c r="F18" t="n">
-        <v>284.5395</v>
+        <v>1104</v>
       </c>
       <c r="G18" t="n">
-        <v>584.9333333333333</v>
+        <v>584.9</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E19" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F19" t="n">
-        <v>1674.4169</v>
+        <v>284.5395</v>
       </c>
       <c r="G19" t="n">
-        <v>585</v>
+        <v>584.9333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>584</v>
       </c>
       <c r="F20" t="n">
-        <v>572</v>
+        <v>1674.4169</v>
       </c>
       <c r="G20" t="n">
-        <v>585.0666666666667</v>
+        <v>585</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>584</v>
       </c>
       <c r="F21" t="n">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="G21" t="n">
-        <v>585.15</v>
+        <v>585.0666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>584</v>
       </c>
       <c r="F22" t="n">
-        <v>635.9999</v>
+        <v>585</v>
       </c>
       <c r="G22" t="n">
-        <v>585.2166666666667</v>
+        <v>585.15</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>584</v>
       </c>
       <c r="F23" t="n">
-        <v>1801.0599</v>
+        <v>635.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>585.2833333333333</v>
+        <v>585.2166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>584</v>
       </c>
       <c r="F24" t="n">
-        <v>188.6767</v>
+        <v>1801.0599</v>
       </c>
       <c r="G24" t="n">
-        <v>585.35</v>
+        <v>585.2833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E25" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F25" t="n">
-        <v>167.832</v>
+        <v>188.6767</v>
       </c>
       <c r="G25" t="n">
-        <v>585.3833333333333</v>
+        <v>585.35</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C26" t="n">
         <v>582</v>
       </c>
       <c r="D26" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E26" t="n">
         <v>582</v>
       </c>
       <c r="F26" t="n">
-        <v>842.9903</v>
+        <v>167.832</v>
       </c>
       <c r="G26" t="n">
-        <v>585.4333333333333</v>
+        <v>585.3833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>583</v>
       </c>
       <c r="C27" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D27" t="n">
         <v>583</v>
       </c>
       <c r="E27" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F27" t="n">
-        <v>1.71526586</v>
+        <v>842.9903</v>
       </c>
       <c r="G27" t="n">
-        <v>585.5166666666667</v>
+        <v>585.4333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>583</v>
       </c>
       <c r="F28" t="n">
-        <v>320</v>
+        <v>1.71526586</v>
       </c>
       <c r="G28" t="n">
-        <v>585.5666666666667</v>
+        <v>585.5166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>583</v>
       </c>
       <c r="F29" t="n">
-        <v>1704.7056</v>
+        <v>320</v>
       </c>
       <c r="G29" t="n">
-        <v>585.7666666666667</v>
+        <v>585.5666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E30" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1704.7056</v>
       </c>
       <c r="G30" t="n">
-        <v>585.8666666666667</v>
+        <v>585.7666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E31" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>585.95</v>
+        <v>585.8666666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E32" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F32" t="n">
-        <v>264.4018</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>586.0166666666667</v>
+        <v>585.95</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C33" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D33" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E33" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F33" t="n">
-        <v>2963.8478</v>
+        <v>264.4018</v>
       </c>
       <c r="G33" t="n">
-        <v>586.0333333333333</v>
+        <v>586.0166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>581</v>
       </c>
       <c r="F34" t="n">
-        <v>400</v>
+        <v>2963.8478</v>
       </c>
       <c r="G34" t="n">
-        <v>586.05</v>
+        <v>586.0333333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>582</v>
       </c>
       <c r="C35" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D35" t="n">
         <v>582</v>
       </c>
       <c r="E35" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F35" t="n">
-        <v>1322.4731</v>
+        <v>400</v>
       </c>
       <c r="G35" t="n">
-        <v>586.0833333333334</v>
+        <v>586.05</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E36" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F36" t="n">
-        <v>1282.5417</v>
+        <v>1322.4731</v>
       </c>
       <c r="G36" t="n">
-        <v>586.1</v>
+        <v>586.0833333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>581</v>
       </c>
       <c r="F37" t="n">
-        <v>890.4783</v>
+        <v>1282.5417</v>
       </c>
       <c r="G37" t="n">
-        <v>586.1166666666667</v>
+        <v>586.1</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E38" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F38" t="n">
-        <v>166.956</v>
+        <v>890.4783</v>
       </c>
       <c r="G38" t="n">
         <v>586.1166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E39" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F39" t="n">
-        <v>149.3095</v>
+        <v>166.956</v>
       </c>
       <c r="G39" t="n">
-        <v>586.05</v>
+        <v>586.1166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E40" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F40" t="n">
-        <v>4.1996</v>
+        <v>149.3095</v>
       </c>
       <c r="G40" t="n">
-        <v>585.9166666666666</v>
+        <v>586.05</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E41" t="n">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4.1996</v>
       </c>
       <c r="G41" t="n">
         <v>585.9166666666666</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C42" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D42" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E42" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F42" t="n">
-        <v>91.2792</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>585.95</v>
+        <v>585.9166666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C43" t="n">
         <v>582</v>
       </c>
       <c r="D43" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E43" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F43" t="n">
-        <v>323.035</v>
+        <v>91.2792</v>
       </c>
       <c r="G43" t="n">
-        <v>585.9833333333333</v>
+        <v>585.95</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1509,15 +1640,18 @@
         <v>582</v>
       </c>
       <c r="E44" t="n">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="F44" t="n">
-        <v>226.74692176</v>
+        <v>323.035</v>
       </c>
       <c r="G44" t="n">
-        <v>586.0166666666667</v>
+        <v>585.9833333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C45" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D45" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E45" t="n">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F45" t="n">
-        <v>468.9181</v>
+        <v>226.74692176</v>
       </c>
       <c r="G45" t="n">
-        <v>586.0833333333334</v>
+        <v>586.0166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C46" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D46" t="n">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E46" t="n">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F46" t="n">
-        <v>45.0381</v>
+        <v>468.9181</v>
       </c>
       <c r="G46" t="n">
-        <v>586.0333333333333</v>
+        <v>586.0833333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C47" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D47" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E47" t="n">
         <v>582</v>
       </c>
       <c r="F47" t="n">
-        <v>149.6201</v>
+        <v>45.0381</v>
       </c>
       <c r="G47" t="n">
-        <v>586.0166666666667</v>
+        <v>586.0333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C48" t="n">
+        <v>582</v>
+      </c>
+      <c r="D48" t="n">
         <v>584</v>
       </c>
-      <c r="D48" t="n">
-        <v>587</v>
-      </c>
       <c r="E48" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F48" t="n">
-        <v>24.698</v>
+        <v>149.6201</v>
       </c>
       <c r="G48" t="n">
-        <v>585.9166666666666</v>
+        <v>586.0166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>587</v>
+      </c>
+      <c r="C49" t="n">
         <v>584</v>
       </c>
-      <c r="C49" t="n">
-        <v>591</v>
-      </c>
       <c r="D49" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E49" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F49" t="n">
-        <v>676.0023</v>
+        <v>24.698</v>
       </c>
       <c r="G49" t="n">
-        <v>585.9</v>
+        <v>585.9166666666666</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C50" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D50" t="n">
         <v>591</v>
       </c>
       <c r="E50" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F50" t="n">
-        <v>197.4504</v>
+        <v>676.0023</v>
       </c>
       <c r="G50" t="n">
-        <v>585.8333333333334</v>
+        <v>585.9</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C51" t="n">
         <v>588</v>
       </c>
       <c r="D51" t="n">
+        <v>591</v>
+      </c>
+      <c r="E51" t="n">
         <v>588</v>
       </c>
-      <c r="E51" t="n">
-        <v>587</v>
-      </c>
       <c r="F51" t="n">
-        <v>15.2859</v>
+        <v>197.4504</v>
       </c>
       <c r="G51" t="n">
-        <v>585.7666666666667</v>
+        <v>585.8333333333334</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1717,15 +1872,18 @@
         <v>588</v>
       </c>
       <c r="E52" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F52" t="n">
-        <v>337.4</v>
+        <v>15.2859</v>
       </c>
       <c r="G52" t="n">
-        <v>585.6</v>
+        <v>585.7666666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>588</v>
       </c>
       <c r="F53" t="n">
-        <v>65.9671</v>
+        <v>337.4</v>
       </c>
       <c r="G53" t="n">
-        <v>585.4833333333333</v>
+        <v>585.6</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>588</v>
       </c>
       <c r="F54" t="n">
-        <v>176.03926054</v>
+        <v>65.9671</v>
       </c>
       <c r="G54" t="n">
-        <v>585.35</v>
+        <v>585.4833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>588</v>
       </c>
       <c r="C55" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D55" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E55" t="n">
         <v>588</v>
       </c>
       <c r="F55" t="n">
-        <v>42.05635776</v>
+        <v>176.03926054</v>
       </c>
       <c r="G55" t="n">
-        <v>585.2333333333333</v>
+        <v>585.35</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>588</v>
       </c>
       <c r="C56" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D56" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E56" t="n">
         <v>588</v>
       </c>
       <c r="F56" t="n">
-        <v>189.35662869</v>
+        <v>42.05635776</v>
       </c>
       <c r="G56" t="n">
-        <v>585.1</v>
+        <v>585.2333333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C57" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D57" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E57" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F57" t="n">
-        <v>4.321</v>
+        <v>189.35662869</v>
       </c>
       <c r="G57" t="n">
-        <v>584.9833333333333</v>
+        <v>585.1</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>587</v>
       </c>
       <c r="C58" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D58" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E58" t="n">
         <v>587</v>
       </c>
       <c r="F58" t="n">
-        <v>247.2471</v>
+        <v>4.321</v>
       </c>
       <c r="G58" t="n">
-        <v>584.8833333333333</v>
+        <v>584.9833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C59" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D59" t="n">
         <v>590</v>
       </c>
       <c r="E59" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F59" t="n">
-        <v>30.4621</v>
+        <v>247.2471</v>
       </c>
       <c r="G59" t="n">
         <v>584.8833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>590</v>
       </c>
       <c r="F60" t="n">
-        <v>671.7528</v>
+        <v>30.4621</v>
       </c>
       <c r="G60" t="n">
         <v>584.8833333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>590</v>
       </c>
       <c r="F61" t="n">
-        <v>2955.7140817</v>
+        <v>671.7528</v>
       </c>
       <c r="G61" t="n">
-        <v>584.8</v>
+        <v>584.8833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E62" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F62" t="n">
-        <v>450.8883</v>
+        <v>2955.7140817</v>
       </c>
       <c r="G62" t="n">
-        <v>584.8333333333334</v>
+        <v>584.8</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>592</v>
       </c>
       <c r="F63" t="n">
-        <v>514.6</v>
+        <v>450.8883</v>
       </c>
       <c r="G63" t="n">
-        <v>584.9666666666667</v>
+        <v>584.8333333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E64" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F64" t="n">
-        <v>63.8</v>
+        <v>514.6</v>
       </c>
       <c r="G64" t="n">
-        <v>585</v>
+        <v>584.9666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2061,9 +2255,12 @@
         <v>63.8</v>
       </c>
       <c r="G65" t="n">
-        <v>585.0333333333333</v>
+        <v>585</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>591</v>
       </c>
       <c r="F66" t="n">
-        <v>63.7728</v>
+        <v>63.8</v>
       </c>
       <c r="G66" t="n">
-        <v>585.0666666666667</v>
+        <v>585.0333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>591</v>
       </c>
       <c r="F67" t="n">
-        <v>284.5762</v>
+        <v>63.7728</v>
       </c>
       <c r="G67" t="n">
-        <v>585.1</v>
+        <v>585.0666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>591</v>
       </c>
       <c r="F68" t="n">
-        <v>42.2975</v>
+        <v>284.5762</v>
       </c>
       <c r="G68" t="n">
-        <v>585.1333333333333</v>
+        <v>585.1</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>591</v>
       </c>
       <c r="F69" t="n">
-        <v>39.2669</v>
+        <v>42.2975</v>
       </c>
       <c r="G69" t="n">
-        <v>585.05</v>
+        <v>585.1333333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E70" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F70" t="n">
-        <v>79</v>
+        <v>39.2669</v>
       </c>
       <c r="G70" t="n">
-        <v>584.9833333333333</v>
+        <v>585.05</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E71" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F71" t="n">
-        <v>69.6589</v>
+        <v>79</v>
       </c>
       <c r="G71" t="n">
-        <v>585.1166666666667</v>
+        <v>584.9833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>591</v>
       </c>
       <c r="F72" t="n">
-        <v>29.3884</v>
+        <v>69.6589</v>
       </c>
       <c r="G72" t="n">
-        <v>585.2833333333333</v>
+        <v>585.1166666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>591</v>
       </c>
       <c r="F73" t="n">
-        <v>22.5651</v>
+        <v>29.3884</v>
       </c>
       <c r="G73" t="n">
-        <v>585.2333333333333</v>
+        <v>585.2833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>591</v>
       </c>
       <c r="F74" t="n">
-        <v>22.3941</v>
+        <v>22.5651</v>
       </c>
       <c r="G74" t="n">
-        <v>585.3833333333333</v>
+        <v>585.2333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>591</v>
       </c>
       <c r="F75" t="n">
-        <v>196.2594</v>
+        <v>22.3941</v>
       </c>
       <c r="G75" t="n">
-        <v>585.6666666666666</v>
+        <v>585.3833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>591</v>
       </c>
       <c r="F76" t="n">
-        <v>35.5176</v>
+        <v>196.2594</v>
       </c>
       <c r="G76" t="n">
-        <v>585.8833333333333</v>
+        <v>585.6666666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>591</v>
       </c>
       <c r="C77" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D77" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E77" t="n">
         <v>591</v>
       </c>
       <c r="F77" t="n">
-        <v>177.6687</v>
+        <v>35.5176</v>
       </c>
       <c r="G77" t="n">
-        <v>586.05</v>
+        <v>585.8833333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>591</v>
       </c>
       <c r="C78" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D78" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E78" t="n">
         <v>591</v>
       </c>
       <c r="F78" t="n">
-        <v>213.02</v>
+        <v>177.6687</v>
       </c>
       <c r="G78" t="n">
-        <v>586.2</v>
+        <v>586.05</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>591</v>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>213.02</v>
       </c>
       <c r="G79" t="n">
-        <v>586.3166666666667</v>
+        <v>586.2</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>591</v>
       </c>
       <c r="F80" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G80" t="n">
-        <v>586.4333333333333</v>
+        <v>586.3166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E81" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F81" t="n">
-        <v>78.0337</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
-        <v>586.5666666666667</v>
+        <v>586.4333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>592</v>
       </c>
       <c r="C82" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D82" t="n">
         <v>592</v>
       </c>
       <c r="E82" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F82" t="n">
-        <v>674.9555</v>
+        <v>78.0337</v>
       </c>
       <c r="G82" t="n">
-        <v>586.6833333333333</v>
+        <v>586.5666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C83" t="n">
         <v>591</v>
       </c>
       <c r="D83" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E83" t="n">
         <v>591</v>
       </c>
       <c r="F83" t="n">
-        <v>308.0598</v>
+        <v>674.9555</v>
       </c>
       <c r="G83" t="n">
-        <v>586.8</v>
+        <v>586.6833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>591</v>
       </c>
       <c r="F84" t="n">
-        <v>87.48990000000001</v>
+        <v>308.0598</v>
       </c>
       <c r="G84" t="n">
-        <v>586.9166666666666</v>
+        <v>586.8</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E85" t="n">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F85" t="n">
-        <v>2.62248322</v>
+        <v>87.48990000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>587.15</v>
+        <v>586.9166666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C86" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D86" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E86" t="n">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F86" t="n">
-        <v>283.6683</v>
+        <v>2.62248322</v>
       </c>
       <c r="G86" t="n">
-        <v>587.2833333333333</v>
+        <v>587.15</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2627,15 +2887,18 @@
         <v>590</v>
       </c>
       <c r="E87" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F87" t="n">
-        <v>472.4</v>
+        <v>283.6683</v>
       </c>
       <c r="G87" t="n">
-        <v>587.4</v>
+        <v>587.2833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E88" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F88" t="n">
-        <v>1.8878</v>
+        <v>472.4</v>
       </c>
       <c r="G88" t="n">
-        <v>587.5333333333333</v>
+        <v>587.4</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F89" t="n">
-        <v>4.4311</v>
+        <v>1.8878</v>
       </c>
       <c r="G89" t="n">
-        <v>587.65</v>
+        <v>587.5333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>590</v>
       </c>
       <c r="C90" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D90" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E90" t="n">
         <v>590</v>
       </c>
       <c r="F90" t="n">
-        <v>43.8426</v>
+        <v>4.4311</v>
       </c>
       <c r="G90" t="n">
-        <v>587.7666666666667</v>
+        <v>587.65</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2994,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C91" t="n">
         <v>591</v>
@@ -2734,12 +3006,15 @@
         <v>590</v>
       </c>
       <c r="F91" t="n">
-        <v>74.8994</v>
+        <v>43.8426</v>
       </c>
       <c r="G91" t="n">
-        <v>587.8666666666667</v>
+        <v>587.7666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2757,15 +3032,18 @@
         <v>591</v>
       </c>
       <c r="E92" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F92" t="n">
-        <v>1.7089</v>
+        <v>74.8994</v>
       </c>
       <c r="G92" t="n">
-        <v>587.9833333333333</v>
+        <v>587.8666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2783,15 +3061,18 @@
         <v>591</v>
       </c>
       <c r="E93" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F93" t="n">
-        <v>331.764</v>
+        <v>1.7089</v>
       </c>
       <c r="G93" t="n">
-        <v>588.15</v>
+        <v>587.9833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2809,15 +3090,18 @@
         <v>591</v>
       </c>
       <c r="E94" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F94" t="n">
-        <v>119.4207</v>
+        <v>331.764</v>
       </c>
       <c r="G94" t="n">
-        <v>588.3166666666667</v>
+        <v>588.15</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>591</v>
       </c>
       <c r="F95" t="n">
-        <v>27.5591</v>
+        <v>119.4207</v>
       </c>
       <c r="G95" t="n">
-        <v>588.4666666666667</v>
+        <v>588.3166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>591</v>
       </c>
       <c r="F96" t="n">
-        <v>41.8551</v>
+        <v>27.5591</v>
       </c>
       <c r="G96" t="n">
-        <v>588.6333333333333</v>
+        <v>588.4666666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>591</v>
       </c>
       <c r="F97" t="n">
-        <v>66.7929</v>
+        <v>41.8551</v>
       </c>
       <c r="G97" t="n">
-        <v>588.8</v>
+        <v>588.6333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2913,15 +3206,18 @@
         <v>591</v>
       </c>
       <c r="E98" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F98" t="n">
-        <v>95.2298</v>
+        <v>66.7929</v>
       </c>
       <c r="G98" t="n">
-        <v>588.9833333333333</v>
+        <v>588.8</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2939,15 +3235,18 @@
         <v>591</v>
       </c>
       <c r="E99" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F99" t="n">
-        <v>90.9841</v>
+        <v>95.2298</v>
       </c>
       <c r="G99" t="n">
-        <v>589.2333333333333</v>
+        <v>588.9833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>591</v>
       </c>
       <c r="F100" t="n">
-        <v>179.5806</v>
+        <v>90.9841</v>
       </c>
       <c r="G100" t="n">
-        <v>589.55</v>
+        <v>589.2333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>591</v>
       </c>
       <c r="F101" t="n">
-        <v>17.1496</v>
+        <v>179.5806</v>
       </c>
       <c r="G101" t="n">
-        <v>589.7333333333333</v>
+        <v>589.55</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>591</v>
       </c>
       <c r="F102" t="n">
-        <v>22.1774</v>
+        <v>17.1496</v>
       </c>
       <c r="G102" t="n">
-        <v>589.8833333333333</v>
+        <v>589.7333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,18 +3348,21 @@
         <v>591</v>
       </c>
       <c r="D103" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E103" t="n">
         <v>591</v>
       </c>
       <c r="F103" t="n">
-        <v>112.8383</v>
+        <v>22.1774</v>
       </c>
       <c r="G103" t="n">
-        <v>590.0333333333333</v>
+        <v>589.8833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3066,18 +3377,21 @@
         <v>591</v>
       </c>
       <c r="D104" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E104" t="n">
         <v>591</v>
       </c>
       <c r="F104" t="n">
-        <v>143.1784</v>
+        <v>112.8383</v>
       </c>
       <c r="G104" t="n">
-        <v>590.1833333333333</v>
+        <v>590.0333333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>591</v>
       </c>
       <c r="F105" t="n">
-        <v>6.1384</v>
+        <v>143.1784</v>
       </c>
       <c r="G105" t="n">
-        <v>590.3</v>
+        <v>590.1833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>591</v>
       </c>
       <c r="F106" t="n">
-        <v>55.246</v>
+        <v>6.1384</v>
       </c>
       <c r="G106" t="n">
-        <v>590.3666666666667</v>
+        <v>590.3</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>591</v>
       </c>
       <c r="F107" t="n">
-        <v>35.7774</v>
+        <v>55.246</v>
       </c>
       <c r="G107" t="n">
-        <v>590.5166666666667</v>
+        <v>590.3666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C108" t="n">
         <v>591</v>
       </c>
       <c r="D108" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E108" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F108" t="n">
-        <v>869.539</v>
+        <v>35.7774</v>
       </c>
       <c r="G108" t="n">
-        <v>590.6333333333333</v>
+        <v>590.5166666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C109" t="n">
         <v>591</v>
       </c>
       <c r="D109" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E109" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F109" t="n">
-        <v>40.6911</v>
+        <v>869.539</v>
       </c>
       <c r="G109" t="n">
         <v>590.6333333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>591</v>
       </c>
       <c r="F110" t="n">
-        <v>18.4964</v>
+        <v>40.6911</v>
       </c>
       <c r="G110" t="n">
-        <v>590.6833333333333</v>
+        <v>590.6333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>591</v>
       </c>
       <c r="F111" t="n">
-        <v>12.7125</v>
+        <v>18.4964</v>
       </c>
       <c r="G111" t="n">
-        <v>590.7333333333333</v>
+        <v>590.6833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C112" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D112" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E112" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F112" t="n">
-        <v>280</v>
+        <v>12.7125</v>
       </c>
       <c r="G112" t="n">
-        <v>590.6833333333333</v>
+        <v>590.7333333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C113" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D113" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E113" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F113" t="n">
-        <v>2.6175</v>
+        <v>280</v>
       </c>
       <c r="G113" t="n">
-        <v>590.7333333333333</v>
+        <v>590.6833333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E114" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F114" t="n">
-        <v>7</v>
+        <v>2.6175</v>
       </c>
       <c r="G114" t="n">
-        <v>590.6833333333333</v>
+        <v>590.7333333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>585</v>
       </c>
       <c r="F115" t="n">
-        <v>641.669</v>
+        <v>7</v>
       </c>
       <c r="G115" t="n">
-        <v>590.6</v>
+        <v>590.6833333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>585</v>
       </c>
       <c r="C116" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D116" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E116" t="n">
         <v>585</v>
       </c>
       <c r="F116" t="n">
-        <v>410.7966</v>
+        <v>641.669</v>
       </c>
       <c r="G116" t="n">
-        <v>590.6333333333333</v>
+        <v>590.6</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C117" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D117" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E117" t="n">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F117" t="n">
-        <v>17.8688</v>
+        <v>410.7966</v>
       </c>
       <c r="G117" t="n">
-        <v>590.7166666666667</v>
+        <v>590.6333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>592</v>
       </c>
       <c r="F118" t="n">
-        <v>36.2347</v>
+        <v>17.8688</v>
       </c>
       <c r="G118" t="n">
-        <v>590.7666666666667</v>
+        <v>590.7166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="C119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E119" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F119" t="n">
-        <v>664.7854</v>
+        <v>36.2347</v>
       </c>
       <c r="G119" t="n">
-        <v>590.6333333333333</v>
+        <v>590.7666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C120" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D120" t="n">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E120" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F120" t="n">
-        <v>14.622</v>
+        <v>664.7854</v>
       </c>
       <c r="G120" t="n">
         <v>590.6333333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,7 +3864,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C121" t="n">
         <v>590</v>
@@ -3511,15 +3873,18 @@
         <v>590</v>
       </c>
       <c r="E121" t="n">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F121" t="n">
-        <v>7.4913</v>
+        <v>14.622</v>
       </c>
       <c r="G121" t="n">
         <v>590.6333333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E122" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F122" t="n">
-        <v>2.0865</v>
+        <v>7.4913</v>
       </c>
       <c r="G122" t="n">
-        <v>590.5833333333334</v>
+        <v>590.6333333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C123" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D123" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E123" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F123" t="n">
-        <v>13.4532</v>
+        <v>2.0865</v>
       </c>
       <c r="G123" t="n">
-        <v>590.5666666666667</v>
+        <v>590.5833333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C124" t="n">
+        <v>591</v>
+      </c>
+      <c r="D124" t="n">
         <v>593</v>
       </c>
-      <c r="D124" t="n">
-        <v>595</v>
-      </c>
       <c r="E124" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F124" t="n">
-        <v>12.4287</v>
+        <v>13.4532</v>
       </c>
       <c r="G124" t="n">
-        <v>590.6</v>
+        <v>590.5666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C125" t="n">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D125" t="n">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E125" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>12.4287</v>
       </c>
       <c r="G125" t="n">
-        <v>590.45</v>
+        <v>590.6</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E126" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F126" t="n">
-        <v>101.531</v>
+        <v>200</v>
       </c>
       <c r="G126" t="n">
-        <v>590.35</v>
+        <v>590.45</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E127" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F127" t="n">
-        <v>118.1982</v>
+        <v>101.531</v>
       </c>
       <c r="G127" t="n">
-        <v>590.3333333333334</v>
+        <v>590.35</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E128" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F128" t="n">
-        <v>20.3037</v>
+        <v>118.1982</v>
       </c>
       <c r="G128" t="n">
-        <v>590.3</v>
+        <v>590.3333333333334</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>589</v>
       </c>
       <c r="F129" t="n">
-        <v>23.2929</v>
+        <v>20.3037</v>
       </c>
       <c r="G129" t="n">
-        <v>590.2666666666667</v>
+        <v>590.3</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>589</v>
       </c>
       <c r="F130" t="n">
-        <v>8.608599999999999</v>
+        <v>23.2929</v>
       </c>
       <c r="G130" t="n">
-        <v>590.25</v>
+        <v>590.2666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E131" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F131" t="n">
-        <v>40</v>
+        <v>8.608599999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>590.1333333333333</v>
+        <v>590.25</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E132" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F132" t="n">
-        <v>65.99299999999999</v>
+        <v>40</v>
       </c>
       <c r="G132" t="n">
-        <v>590.05</v>
+        <v>590.1333333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E133" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F133" t="n">
-        <v>4.103</v>
+        <v>65.99299999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>590.0666666666667</v>
+        <v>590.05</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="E134" t="n">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>4.103</v>
       </c>
       <c r="G134" t="n">
-        <v>589.9666666666667</v>
+        <v>590.0666666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E135" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F135" t="n">
-        <v>625.8017</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
-        <v>589.8333333333334</v>
+        <v>589.9666666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E136" t="n">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F136" t="n">
-        <v>13.262</v>
+        <v>625.8017</v>
       </c>
       <c r="G136" t="n">
         <v>589.8333333333334</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C137" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D137" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E137" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F137" t="n">
-        <v>149.7052</v>
+        <v>13.262</v>
       </c>
       <c r="G137" t="n">
-        <v>589.7333333333333</v>
+        <v>589.8333333333334</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C138" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D138" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E138" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F138" t="n">
-        <v>9.245699999999999</v>
+        <v>149.7052</v>
       </c>
       <c r="G138" t="n">
         <v>589.7333333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C139" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D139" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E139" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F139" t="n">
-        <v>19.4009</v>
+        <v>9.245699999999999</v>
       </c>
       <c r="G139" t="n">
-        <v>589.7166666666667</v>
+        <v>589.7333333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>590</v>
       </c>
       <c r="C140" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D140" t="n">
         <v>590</v>
       </c>
       <c r="E140" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F140" t="n">
-        <v>19.3228</v>
+        <v>19.4009</v>
       </c>
       <c r="G140" t="n">
-        <v>589.6833333333333</v>
+        <v>589.7166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C141" t="n">
         <v>589</v>
       </c>
       <c r="D141" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E141" t="n">
         <v>589</v>
       </c>
       <c r="F141" t="n">
-        <v>1.5704</v>
+        <v>19.3228</v>
       </c>
       <c r="G141" t="n">
-        <v>589.6333333333333</v>
+        <v>589.6833333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E142" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F142" t="n">
-        <v>141.5195</v>
+        <v>1.5704</v>
       </c>
       <c r="G142" t="n">
-        <v>589.55</v>
+        <v>589.6333333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>586</v>
       </c>
       <c r="F143" t="n">
-        <v>11.4805</v>
+        <v>141.5195</v>
       </c>
       <c r="G143" t="n">
-        <v>589.4666666666667</v>
+        <v>589.55</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E144" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F144" t="n">
-        <v>1.2512</v>
+        <v>11.4805</v>
       </c>
       <c r="G144" t="n">
-        <v>589.45</v>
+        <v>589.4666666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>590</v>
       </c>
       <c r="C145" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D145" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E145" t="n">
         <v>590</v>
       </c>
       <c r="F145" t="n">
-        <v>13.2377</v>
+        <v>1.2512</v>
       </c>
       <c r="G145" t="n">
-        <v>589.4</v>
+        <v>589.45</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,7 +4589,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C146" t="n">
         <v>593</v>
@@ -4161,15 +4598,18 @@
         <v>593</v>
       </c>
       <c r="E146" t="n">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F146" t="n">
-        <v>2.4485</v>
+        <v>13.2377</v>
       </c>
       <c r="G146" t="n">
-        <v>589.45</v>
+        <v>589.4</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>593</v>
       </c>
       <c r="F147" t="n">
-        <v>1.2239</v>
+        <v>2.4485</v>
       </c>
       <c r="G147" t="n">
-        <v>589.5</v>
+        <v>589.45</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C148" t="n">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D148" t="n">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E148" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F148" t="n">
-        <v>398.8072</v>
+        <v>1.2239</v>
       </c>
       <c r="G148" t="n">
-        <v>589.5833333333334</v>
+        <v>589.5</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C149" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D149" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E149" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F149" t="n">
-        <v>92.2021</v>
+        <v>398.8072</v>
       </c>
       <c r="G149" t="n">
-        <v>589.6666666666666</v>
+        <v>589.5833333333334</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C150" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D150" t="n">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E150" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F150" t="n">
-        <v>21.7451</v>
+        <v>92.2021</v>
       </c>
       <c r="G150" t="n">
-        <v>589.5666666666667</v>
+        <v>589.6666666666666</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C151" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D151" t="n">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E151" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F151" t="n">
-        <v>170.203</v>
+        <v>21.7451</v>
       </c>
       <c r="G151" t="n">
-        <v>589.6333333333333</v>
+        <v>589.5666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C152" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D152" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E152" t="n">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F152" t="n">
-        <v>150</v>
+        <v>170.203</v>
       </c>
       <c r="G152" t="n">
-        <v>589.5833333333334</v>
+        <v>589.6333333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>588</v>
       </c>
       <c r="F153" t="n">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="G153" t="n">
-        <v>589.5333333333333</v>
+        <v>589.5833333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C154" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D154" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E154" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F154" t="n">
-        <v>210.764</v>
+        <v>336</v>
       </c>
       <c r="G154" t="n">
-        <v>589.45</v>
+        <v>589.5333333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C155" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D155" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E155" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F155" t="n">
-        <v>3.9384</v>
+        <v>210.764</v>
       </c>
       <c r="G155" t="n">
-        <v>589.4833333333333</v>
+        <v>589.45</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E156" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F156" t="n">
-        <v>717.0467</v>
+        <v>3.9384</v>
       </c>
       <c r="G156" t="n">
-        <v>589.4333333333333</v>
+        <v>589.4833333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E157" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F157" t="n">
-        <v>140</v>
+        <v>717.0467</v>
       </c>
       <c r="G157" t="n">
-        <v>589.35</v>
+        <v>589.4333333333333</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E158" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F158" t="n">
-        <v>27.452</v>
+        <v>140</v>
       </c>
       <c r="G158" t="n">
-        <v>589.3333333333334</v>
+        <v>589.35</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E159" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F159" t="n">
-        <v>100</v>
+        <v>27.452</v>
       </c>
       <c r="G159" t="n">
-        <v>589.2333333333333</v>
+        <v>589.3333333333334</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>585</v>
       </c>
       <c r="C160" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D160" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E160" t="n">
         <v>585</v>
       </c>
       <c r="F160" t="n">
-        <v>733.5485</v>
+        <v>100</v>
       </c>
       <c r="G160" t="n">
-        <v>589.2166666666667</v>
+        <v>589.2333333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +5024,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C161" t="n">
         <v>590</v>
@@ -4551,15 +5033,18 @@
         <v>590</v>
       </c>
       <c r="E161" t="n">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F161" t="n">
-        <v>57.6895</v>
+        <v>733.5485</v>
       </c>
       <c r="G161" t="n">
-        <v>589.2</v>
+        <v>589.2166666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>590</v>
       </c>
       <c r="F162" t="n">
-        <v>1.7298</v>
+        <v>57.6895</v>
       </c>
       <c r="G162" t="n">
-        <v>589.1833333333333</v>
+        <v>589.2</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C163" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D163" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E163" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F163" t="n">
-        <v>202.7978</v>
+        <v>1.7298</v>
       </c>
       <c r="G163" t="n">
-        <v>589.2833333333333</v>
+        <v>589.1833333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,7 +5111,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C164" t="n">
         <v>597</v>
@@ -4629,15 +5120,18 @@
         <v>597</v>
       </c>
       <c r="E164" t="n">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F164" t="n">
-        <v>35.2488</v>
+        <v>202.7978</v>
       </c>
       <c r="G164" t="n">
-        <v>589.3833333333333</v>
+        <v>589.2833333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="D165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E165" t="n">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>35.2488</v>
       </c>
       <c r="G165" t="n">
-        <v>589.3</v>
+        <v>589.3833333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C166" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D166" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E166" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F166" t="n">
-        <v>842.16103709</v>
+        <v>500</v>
       </c>
       <c r="G166" t="n">
-        <v>589.3333333333334</v>
+        <v>589.3</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C167" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D167" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E167" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="F167" t="n">
-        <v>500.6185</v>
+        <v>842.16103709</v>
       </c>
       <c r="G167" t="n">
         <v>589.3333333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C168" t="n">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D168" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E168" t="n">
         <v>584</v>
       </c>
       <c r="F168" t="n">
-        <v>636.9737</v>
+        <v>500.6185</v>
       </c>
       <c r="G168" t="n">
-        <v>589.2166666666667</v>
+        <v>589.3333333333334</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C169" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D169" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E169" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F169" t="n">
-        <v>3979.4781</v>
+        <v>636.9737</v>
       </c>
       <c r="G169" t="n">
-        <v>589.0833333333334</v>
+        <v>589.2166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E170" t="n">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>3979.4781</v>
       </c>
       <c r="G170" t="n">
-        <v>589.0333333333333</v>
+        <v>589.0833333333334</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,21 +5317,24 @@
         <v>588</v>
       </c>
       <c r="C171" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D171" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E171" t="n">
         <v>588</v>
       </c>
       <c r="F171" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>589.0166666666667</v>
+        <v>589.0333333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5343,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C172" t="n">
         <v>590</v>
@@ -4837,15 +5352,18 @@
         <v>590</v>
       </c>
       <c r="E172" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F172" t="n">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="G172" t="n">
-        <v>589.1</v>
+        <v>589.0166666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>590</v>
       </c>
       <c r="F173" t="n">
-        <v>864.8698000000001</v>
+        <v>355</v>
       </c>
       <c r="G173" t="n">
-        <v>589.0833333333334</v>
+        <v>589.1</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E174" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F174" t="n">
-        <v>17176.5851</v>
+        <v>864.8698000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>589.1833333333333</v>
+        <v>589.0833333333334</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>591</v>
       </c>
       <c r="F175" t="n">
-        <v>113114.097</v>
+        <v>17176.5851</v>
       </c>
       <c r="G175" t="n">
-        <v>589.2833333333333</v>
+        <v>589.1833333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4938,18 +5465,21 @@
         <v>591</v>
       </c>
       <c r="D176" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E176" t="n">
         <v>591</v>
       </c>
       <c r="F176" t="n">
-        <v>73942.1547</v>
+        <v>113114.097</v>
       </c>
       <c r="G176" t="n">
         <v>589.2833333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C177" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D177" t="n">
         <v>592</v>
       </c>
       <c r="E177" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F177" t="n">
-        <v>360.9999</v>
+        <v>73942.1547</v>
       </c>
       <c r="G177" t="n">
         <v>589.2833333333333</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>592</v>
       </c>
       <c r="F178" t="n">
-        <v>165.9779</v>
+        <v>360.9999</v>
       </c>
       <c r="G178" t="n">
         <v>589.2833333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,7 +5546,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C179" t="n">
         <v>592</v>
@@ -5019,15 +5555,18 @@
         <v>592</v>
       </c>
       <c r="E179" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F179" t="n">
-        <v>665.4</v>
+        <v>165.9779</v>
       </c>
       <c r="G179" t="n">
-        <v>589.45</v>
+        <v>589.2833333333333</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C180" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D180" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E180" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F180" t="n">
-        <v>125.215</v>
+        <v>665.4</v>
       </c>
       <c r="G180" t="n">
-        <v>589.4166666666666</v>
+        <v>589.45</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E181" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>125.215</v>
       </c>
       <c r="G181" t="n">
-        <v>589.45</v>
+        <v>589.4166666666666</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>592</v>
       </c>
       <c r="F182" t="n">
-        <v>3.032</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>589.5</v>
+        <v>589.45</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E183" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F183" t="n">
-        <v>93.2381</v>
+        <v>3.032</v>
       </c>
       <c r="G183" t="n">
-        <v>589.5333333333333</v>
+        <v>589.5</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5143,21 +5694,24 @@
         <v>593</v>
       </c>
       <c r="C184" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D184" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E184" t="n">
         <v>593</v>
       </c>
       <c r="F184" t="n">
-        <v>544.1952</v>
+        <v>93.2381</v>
       </c>
       <c r="G184" t="n">
-        <v>589.5666666666667</v>
+        <v>589.5333333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>593</v>
+      </c>
+      <c r="C185" t="n">
         <v>595</v>
       </c>
-      <c r="C185" t="n">
-        <v>596</v>
-      </c>
       <c r="D185" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E185" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F185" t="n">
-        <v>629.3141000000001</v>
+        <v>544.1952</v>
       </c>
       <c r="G185" t="n">
-        <v>589.8</v>
+        <v>589.5666666666667</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C186" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D186" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E186" t="n">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F186" t="n">
-        <v>619</v>
+        <v>629.3141000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>590.0166666666667</v>
+        <v>589.8</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5778,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C187" t="n">
         <v>598</v>
@@ -5227,15 +5787,18 @@
         <v>598</v>
       </c>
       <c r="E187" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F187" t="n">
-        <v>103.5181</v>
+        <v>619</v>
       </c>
       <c r="G187" t="n">
-        <v>590.15</v>
+        <v>590.0166666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E188" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F188" t="n">
-        <v>546</v>
+        <v>103.5181</v>
       </c>
       <c r="G188" t="n">
-        <v>590.3166666666667</v>
+        <v>590.15</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>599</v>
       </c>
       <c r="F189" t="n">
-        <v>124.1525</v>
+        <v>546</v>
       </c>
       <c r="G189" t="n">
-        <v>590.4833333333333</v>
+        <v>590.3166666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E190" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F190" t="n">
-        <v>11</v>
+        <v>124.1525</v>
       </c>
       <c r="G190" t="n">
-        <v>590.6666666666666</v>
+        <v>590.4833333333333</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E191" t="n">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G191" t="n">
-        <v>591.0833333333334</v>
+        <v>590.6666666666666</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>609</v>
       </c>
       <c r="F192" t="n">
-        <v>1061.7059</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>591.4666666666667</v>
+        <v>591.0833333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>609</v>
       </c>
       <c r="F193" t="n">
-        <v>354.8619</v>
+        <v>1061.7059</v>
       </c>
       <c r="G193" t="n">
-        <v>591.75</v>
+        <v>591.4666666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E194" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F194" t="n">
-        <v>275</v>
+        <v>354.8619</v>
       </c>
       <c r="G194" t="n">
-        <v>592.2166666666667</v>
+        <v>591.75</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E195" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F195" t="n">
-        <v>507.9999</v>
+        <v>275</v>
       </c>
       <c r="G195" t="n">
-        <v>592.7</v>
+        <v>592.2166666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E196" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F196" t="n">
-        <v>1521.7329</v>
+        <v>507.9999</v>
       </c>
       <c r="G196" t="n">
-        <v>593.0166666666667</v>
+        <v>592.7</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,25 +6068,28 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C197" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D197" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E197" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F197" t="n">
-        <v>1033.1603</v>
+        <v>1521.7329</v>
       </c>
       <c r="G197" t="n">
-        <v>593.5</v>
+        <v>593.0166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>613</v>
+      </c>
+      <c r="C198" t="n">
         <v>615</v>
       </c>
-      <c r="C198" t="n">
-        <v>617</v>
-      </c>
       <c r="D198" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E198" t="n">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F198" t="n">
-        <v>191.922</v>
+        <v>1033.1603</v>
       </c>
       <c r="G198" t="n">
-        <v>593.9333333333333</v>
+        <v>593.5</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,7 +6126,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C199" t="n">
         <v>617</v>
@@ -5539,15 +6135,18 @@
         <v>617</v>
       </c>
       <c r="E199" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F199" t="n">
-        <v>2109.7525</v>
+        <v>191.922</v>
       </c>
       <c r="G199" t="n">
-        <v>594.3833333333333</v>
+        <v>593.9333333333333</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C200" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D200" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E200" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F200" t="n">
-        <v>477.05</v>
+        <v>2109.7525</v>
       </c>
       <c r="G200" t="n">
-        <v>594.8666666666667</v>
+        <v>594.3833333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>618</v>
       </c>
       <c r="F201" t="n">
-        <v>4082.1407</v>
+        <v>477.05</v>
       </c>
       <c r="G201" t="n">
-        <v>595.35</v>
+        <v>594.8666666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,7 +6213,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C202" t="n">
         <v>618</v>
@@ -5617,15 +6222,18 @@
         <v>618</v>
       </c>
       <c r="E202" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F202" t="n">
-        <v>1596.3464</v>
+        <v>4082.1407</v>
       </c>
       <c r="G202" t="n">
-        <v>595.8833333333333</v>
+        <v>595.35</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,7 +6242,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C203" t="n">
         <v>618</v>
@@ -5643,15 +6251,18 @@
         <v>618</v>
       </c>
       <c r="E203" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F203" t="n">
-        <v>3078.2012</v>
+        <v>1596.3464</v>
       </c>
       <c r="G203" t="n">
-        <v>596.4166666666666</v>
+        <v>595.8833333333333</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E204" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F204" t="n">
-        <v>875.8796</v>
+        <v>3078.2012</v>
       </c>
       <c r="G204" t="n">
-        <v>596.9</v>
+        <v>596.4166666666666</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>619</v>
       </c>
       <c r="C205" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D205" t="n">
         <v>619</v>
       </c>
       <c r="E205" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F205" t="n">
-        <v>1110</v>
+        <v>875.8796</v>
       </c>
       <c r="G205" t="n">
-        <v>597.3166666666667</v>
+        <v>596.9</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>619</v>
       </c>
       <c r="C206" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D206" t="n">
         <v>619</v>
       </c>
       <c r="E206" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F206" t="n">
-        <v>1091.9183</v>
+        <v>1110</v>
       </c>
       <c r="G206" t="n">
-        <v>597.7</v>
+        <v>597.3166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C207" t="n">
         <v>616</v>
       </c>
       <c r="D207" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E207" t="n">
         <v>616</v>
       </c>
       <c r="F207" t="n">
-        <v>247.775</v>
+        <v>1091.9183</v>
       </c>
       <c r="G207" t="n">
-        <v>598.0833333333334</v>
+        <v>597.7</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E208" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F208" t="n">
-        <v>212.5</v>
+        <v>247.775</v>
       </c>
       <c r="G208" t="n">
-        <v>598.4666666666667</v>
+        <v>598.0833333333334</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>619</v>
       </c>
       <c r="C209" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D209" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E209" t="n">
         <v>619</v>
       </c>
       <c r="F209" t="n">
-        <v>155.3961</v>
+        <v>212.5</v>
       </c>
       <c r="G209" t="n">
-        <v>598.9833333333333</v>
+        <v>598.4666666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5819,21 +6448,24 @@
         <v>619</v>
       </c>
       <c r="C210" t="n">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="D210" t="n">
+        <v>626</v>
+      </c>
+      <c r="E210" t="n">
         <v>619</v>
       </c>
-      <c r="E210" t="n">
-        <v>617</v>
-      </c>
       <c r="F210" t="n">
-        <v>643.8552</v>
+        <v>155.3961</v>
       </c>
       <c r="G210" t="n">
-        <v>599.5166666666667</v>
+        <v>598.9833333333333</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>619</v>
       </c>
       <c r="C211" t="n">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D211" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E211" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F211" t="n">
-        <v>329.7348</v>
+        <v>643.8552</v>
       </c>
       <c r="G211" t="n">
-        <v>600.0333333333333</v>
+        <v>599.5166666666667</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C212" t="n">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D212" t="n">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="E212" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F212" t="n">
-        <v>161.983</v>
+        <v>329.7348</v>
       </c>
       <c r="G212" t="n">
-        <v>600.45</v>
+        <v>600.0333333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5897,21 +6535,24 @@
         <v>613</v>
       </c>
       <c r="C213" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D213" t="n">
         <v>613</v>
       </c>
       <c r="E213" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F213" t="n">
-        <v>1214.3454</v>
+        <v>161.983</v>
       </c>
       <c r="G213" t="n">
-        <v>600.85</v>
+        <v>600.45</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C214" t="n">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D214" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E214" t="n">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>1214.3454</v>
       </c>
       <c r="G214" t="n">
-        <v>601.35</v>
+        <v>600.85</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5961,9 +6605,12 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>601.7333333333333</v>
+        <v>601.35</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C216" t="n">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D216" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E216" t="n">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F216" t="n">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>602</v>
+        <v>601.7333333333333</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C217" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D217" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E217" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F217" t="n">
-        <v>74.5</v>
+        <v>226</v>
       </c>
       <c r="G217" t="n">
-        <v>602.3333333333334</v>
+        <v>602</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C218" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D218" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E218" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F218" t="n">
-        <v>3891.9319</v>
+        <v>74.5</v>
       </c>
       <c r="G218" t="n">
-        <v>602.55</v>
+        <v>602.3333333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C219" t="n">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="D219" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E219" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F219" t="n">
-        <v>267.9729</v>
+        <v>3891.9319</v>
       </c>
       <c r="G219" t="n">
-        <v>603.1166666666667</v>
+        <v>602.55</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,7 +6735,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C220" t="n">
         <v>619</v>
@@ -6085,15 +6744,18 @@
         <v>619</v>
       </c>
       <c r="E220" t="n">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F220" t="n">
-        <v>183.2273</v>
+        <v>267.9729</v>
       </c>
       <c r="G220" t="n">
-        <v>603.6</v>
+        <v>603.1166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C221" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D221" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E221" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F221" t="n">
-        <v>79.2</v>
+        <v>183.2273</v>
       </c>
       <c r="G221" t="n">
-        <v>603.8666666666667</v>
+        <v>603.6</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C222" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D222" t="n">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="E222" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F222" t="n">
-        <v>124.527</v>
+        <v>79.2</v>
       </c>
       <c r="G222" t="n">
-        <v>604.1166666666667</v>
+        <v>603.8666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E223" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>124.527</v>
       </c>
       <c r="G223" t="n">
-        <v>604.4333333333333</v>
+        <v>604.1166666666667</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="D224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E224" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="F224" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>604.5666666666667</v>
+        <v>604.4333333333333</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6221,9 +6895,12 @@
         <v>100</v>
       </c>
       <c r="G225" t="n">
-        <v>604.8833333333333</v>
+        <v>604.5666666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E226" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F226" t="n">
         <v>100</v>
       </c>
       <c r="G226" t="n">
-        <v>605.1</v>
+        <v>604.8833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,12 +6950,15 @@
         <v>606</v>
       </c>
       <c r="F227" t="n">
-        <v>132.54</v>
+        <v>100</v>
       </c>
       <c r="G227" t="n">
-        <v>605.35</v>
+        <v>605.1</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>606</v>
       </c>
       <c r="F228" t="n">
-        <v>92.273</v>
+        <v>132.54</v>
       </c>
       <c r="G228" t="n">
-        <v>605.7166666666667</v>
+        <v>605.35</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E229" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F229" t="n">
-        <v>159.733</v>
+        <v>92.273</v>
       </c>
       <c r="G229" t="n">
-        <v>606.0833333333334</v>
+        <v>605.7166666666667</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E230" t="n">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F230" t="n">
-        <v>157.9999</v>
+        <v>159.733</v>
       </c>
       <c r="G230" t="n">
-        <v>606.4</v>
+        <v>606.0833333333334</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>607</v>
       </c>
       <c r="F231" t="n">
-        <v>434</v>
+        <v>157.9999</v>
       </c>
       <c r="G231" t="n">
-        <v>606.6833333333333</v>
+        <v>606.4</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E232" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F232" t="n">
-        <v>41.5002</v>
+        <v>434</v>
       </c>
       <c r="G232" t="n">
-        <v>606.9833333333333</v>
+        <v>606.6833333333333</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>608</v>
       </c>
       <c r="F233" t="n">
-        <v>285.0511</v>
+        <v>41.5002</v>
       </c>
       <c r="G233" t="n">
-        <v>607.2833333333333</v>
+        <v>606.9833333333333</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,541 +7144,24 @@
         <v>608</v>
       </c>
       <c r="C234" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D234" t="n">
         <v>608</v>
       </c>
       <c r="E234" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F234" t="n">
-        <v>364</v>
+        <v>285.0511</v>
       </c>
       <c r="G234" t="n">
-        <v>607.55</v>
+        <v>607.2833333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>608</v>
-      </c>
-      <c r="C235" t="n">
-        <v>606</v>
-      </c>
-      <c r="D235" t="n">
-        <v>608</v>
-      </c>
-      <c r="E235" t="n">
-        <v>606</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2935.0991</v>
-      </c>
-      <c r="G235" t="n">
-        <v>607.8</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>606</v>
-      </c>
-      <c r="C236" t="n">
-        <v>606</v>
-      </c>
-      <c r="D236" t="n">
-        <v>606</v>
-      </c>
-      <c r="E236" t="n">
-        <v>606</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1593.6143</v>
-      </c>
-      <c r="G236" t="n">
-        <v>608.05</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>606</v>
-      </c>
-      <c r="C237" t="n">
-        <v>606</v>
-      </c>
-      <c r="D237" t="n">
-        <v>606</v>
-      </c>
-      <c r="E237" t="n">
-        <v>606</v>
-      </c>
-      <c r="F237" t="n">
-        <v>707.2184</v>
-      </c>
-      <c r="G237" t="n">
-        <v>608.2833333333333</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>607</v>
-      </c>
-      <c r="C238" t="n">
-        <v>607</v>
-      </c>
-      <c r="D238" t="n">
-        <v>607</v>
-      </c>
-      <c r="E238" t="n">
-        <v>606</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2178.3855</v>
-      </c>
-      <c r="G238" t="n">
-        <v>608.5333333333333</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>606</v>
-      </c>
-      <c r="C239" t="n">
-        <v>606</v>
-      </c>
-      <c r="D239" t="n">
-        <v>606</v>
-      </c>
-      <c r="E239" t="n">
-        <v>606</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.3219</v>
-      </c>
-      <c r="G239" t="n">
-        <v>608.7666666666667</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>609</v>
-      </c>
-      <c r="C240" t="n">
-        <v>609</v>
-      </c>
-      <c r="D240" t="n">
-        <v>609</v>
-      </c>
-      <c r="E240" t="n">
-        <v>609</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1</v>
-      </c>
-      <c r="G240" t="n">
-        <v>609.1166666666667</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>605</v>
-      </c>
-      <c r="C241" t="n">
-        <v>603</v>
-      </c>
-      <c r="D241" t="n">
-        <v>605</v>
-      </c>
-      <c r="E241" t="n">
-        <v>603</v>
-      </c>
-      <c r="F241" t="n">
-        <v>922.8973</v>
-      </c>
-      <c r="G241" t="n">
-        <v>609.3</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>606</v>
-      </c>
-      <c r="C242" t="n">
-        <v>606</v>
-      </c>
-      <c r="D242" t="n">
-        <v>606</v>
-      </c>
-      <c r="E242" t="n">
-        <v>606</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1</v>
-      </c>
-      <c r="G242" t="n">
-        <v>609.5333333333333</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>597</v>
-      </c>
-      <c r="C243" t="n">
-        <v>596</v>
-      </c>
-      <c r="D243" t="n">
-        <v>597</v>
-      </c>
-      <c r="E243" t="n">
-        <v>596</v>
-      </c>
-      <c r="F243" t="n">
-        <v>418.3295</v>
-      </c>
-      <c r="G243" t="n">
-        <v>609.5833333333334</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>601</v>
-      </c>
-      <c r="C244" t="n">
-        <v>595</v>
-      </c>
-      <c r="D244" t="n">
-        <v>601</v>
-      </c>
-      <c r="E244" t="n">
-        <v>595</v>
-      </c>
-      <c r="F244" t="n">
-        <v>911.6389</v>
-      </c>
-      <c r="G244" t="n">
-        <v>609.5833333333334</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>595</v>
-      </c>
-      <c r="C245" t="n">
-        <v>601</v>
-      </c>
-      <c r="D245" t="n">
-        <v>601</v>
-      </c>
-      <c r="E245" t="n">
-        <v>595</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1475.6143</v>
-      </c>
-      <c r="G245" t="n">
-        <v>609.6666666666666</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>601</v>
-      </c>
-      <c r="C246" t="n">
-        <v>603</v>
-      </c>
-      <c r="D246" t="n">
-        <v>603</v>
-      </c>
-      <c r="E246" t="n">
-        <v>601</v>
-      </c>
-      <c r="F246" t="n">
-        <v>127.9059</v>
-      </c>
-      <c r="G246" t="n">
-        <v>609.75</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>608</v>
-      </c>
-      <c r="C247" t="n">
-        <v>608</v>
-      </c>
-      <c r="D247" t="n">
-        <v>608</v>
-      </c>
-      <c r="E247" t="n">
-        <v>608</v>
-      </c>
-      <c r="F247" t="n">
-        <v>11</v>
-      </c>
-      <c r="G247" t="n">
-        <v>609.9166666666666</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>597</v>
-      </c>
-      <c r="C248" t="n">
-        <v>596</v>
-      </c>
-      <c r="D248" t="n">
-        <v>597</v>
-      </c>
-      <c r="E248" t="n">
-        <v>596</v>
-      </c>
-      <c r="F248" t="n">
-        <v>152.888</v>
-      </c>
-      <c r="G248" t="n">
-        <v>609.8666666666667</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>596</v>
-      </c>
-      <c r="C249" t="n">
-        <v>593</v>
-      </c>
-      <c r="D249" t="n">
-        <v>596</v>
-      </c>
-      <c r="E249" t="n">
-        <v>593</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1888.4164</v>
-      </c>
-      <c r="G249" t="n">
-        <v>609.7666666666667</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>593</v>
-      </c>
-      <c r="C250" t="n">
-        <v>593</v>
-      </c>
-      <c r="D250" t="n">
-        <v>593</v>
-      </c>
-      <c r="E250" t="n">
-        <v>593</v>
-      </c>
-      <c r="F250" t="n">
-        <v>442.9715</v>
-      </c>
-      <c r="G250" t="n">
-        <v>609.65</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>593</v>
-      </c>
-      <c r="C251" t="n">
-        <v>590</v>
-      </c>
-      <c r="D251" t="n">
-        <v>593</v>
-      </c>
-      <c r="E251" t="n">
-        <v>590</v>
-      </c>
-      <c r="F251" t="n">
-        <v>2394.0974</v>
-      </c>
-      <c r="G251" t="n">
-        <v>609.3333333333334</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>591</v>
-      </c>
-      <c r="C252" t="n">
-        <v>588</v>
-      </c>
-      <c r="D252" t="n">
-        <v>591</v>
-      </c>
-      <c r="E252" t="n">
-        <v>588</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1085.9999</v>
-      </c>
-      <c r="G252" t="n">
-        <v>608.9833333333333</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>588</v>
-      </c>
-      <c r="C253" t="n">
-        <v>587</v>
-      </c>
-      <c r="D253" t="n">
-        <v>588</v>
-      </c>
-      <c r="E253" t="n">
-        <v>587</v>
-      </c>
-      <c r="F253" t="n">
-        <v>450</v>
-      </c>
-      <c r="G253" t="n">
-        <v>608.6166666666667</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>587</v>
-      </c>
-      <c r="C254" t="n">
-        <v>580</v>
-      </c>
-      <c r="D254" t="n">
-        <v>587</v>
-      </c>
-      <c r="E254" t="n">
-        <v>580</v>
-      </c>
-      <c r="F254" t="n">
-        <v>935.8697</v>
-      </c>
-      <c r="G254" t="n">
-        <v>608.0666666666667</v>
-      </c>
-      <c r="H254" t="n">
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
